--- a/let-lambda-quadratic.xlsx
+++ b/let-lambda-quadratic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6C788A-FBE9-4AA1-803B-97A4EC22EE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649B879B-FFFF-48CD-A654-81F4F34C85A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{F1B68F4E-D6E1-4F99-9708-ECBA0C120473}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>a</t>
   </si>
@@ -64,12 +64,6 @@
   </si>
   <si>
     <t>c</t>
-  </si>
-  <si>
-    <t>x lower</t>
-  </si>
-  <si>
-    <t>x upper</t>
   </si>
   <si>
     <t>LET() function</t>
@@ -565,8 +559,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -633,13 +630,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>47978</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1010,15 +1007,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726B8498-58FB-4205-8276-B80D044BBC1E}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="9" max="9" width="19.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1034,7 +1032,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1042,113 +1040,82 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" cm="1">
+        <f t="array" ref="A6:B6">(-$B$2 + {-1,1} * SQRT($B$2^2 - 4 * $B$1* $B$3)) / (2 *$B$1)</f>
+        <v>2</v>
+      </c>
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="B6">
-        <f xml:space="preserve"> (-$B$2 - SQRT($B$2^2 - 4 * $B$1* $B$3)) / (2 *$B$1)</f>
-        <v>2</v>
-      </c>
       <c r="C6" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B6)</f>
-        <v>= (-$B$2 - SQRT($B$2^2 - 4 * $B$1* $B$3)) / (2 *$B$1)</v>
+        <f ca="1">_xlfn.FORMULATEXT(A6)</f>
+        <v>=(-$B$2 + {-1,1} * SQRT($B$2^2 - 4 * $B$1* $B$3)) / (2 *$B$1)</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <f xml:space="preserve"> (-$B$2 + SQRT($B$2^2 - 4 * $B$1* $B$3)) / (2 *$B$1)</f>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B7)</f>
-        <v>= (-$B$2 + SQRT($B$2^2 - 4 * $B$1* $B$3)) / (2 *$B$1)</v>
-      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <f>_xlfn.LET(_xlpm.a,B1,
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" cm="1">
+        <f t="array" ref="A9:B9">_xlfn.LET(_xlpm.a,B1,
 _xlpm.b,B2,
 _xlpm.c,B3,
-(-_xlpm.b-(SQRT(_xlpm.b^2- 4*_xlpm.a*_xlpm.c)))/(2*_xlpm.a))</f>
+(-_xlpm.b + {-1,1} * (SQRT(_xlpm.b^2- 4*_xlpm.a*_xlpm.c)))/(2*_xlpm.a))</f>
         <v>2</v>
       </c>
-      <c r="C10" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B10)</f>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(A9)</f>
         <v>=LET(a,B1,
 b,B2,
 c,B3,
-(-b-(SQRT(b^2- 4*a*c)))/(2*a))</v>
-      </c>
+(-b + {-1,1} * (SQRT(b^2- 4*a*c)))/(2*a))</v>
+      </c>
+      <c r="I9" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11">
-        <f>_xlfn.LET(_xlpm.a,$B$1,
-_xlpm.b,$B$2,
-_xlpm.c,$B$3,
-((-_xlpm.b+(_xlpm.b^2-(4*_xlpm.a*_xlpm.c)))/2*_xlpm.a))</f>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" cm="1">
+        <f t="array" ref="A12:B12">_xlfn.LAMBDA(_xlpm.a,_xlpm.b,_xlpm.c,(-_xlpm.b+{-1,1}*SQRT(_xlpm.b^2-4*_xlpm.a*_xlpm.c))/ (2*_xlpm.a))(B1,B2,B3)</f>
+        <v>2</v>
+      </c>
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="C11" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B11)</f>
-        <v>=LET(a,$B$1,
-b,$B$2,
-c,$B$3,
-((-b+(b^2-(4*a*c)))/2*a))</v>
+      <c r="C12" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(A12)</f>
+        <v>=LAMBDA(a,b,c,(-b+{-1,1}*SQRT(b^2-4*a*c))/ (2*a))(B1,B2,B3)</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>6</v>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" cm="1">
-        <f t="array" ref="A14:B14">_xlfn.LAMBDA(_xlpm.a,_xlpm.b,_xlpm.c,(-_xlpm.b+{-1,1}*SQRT(_xlpm.b^2-4*_xlpm.a*_xlpm.c))/ (2*_xlpm.a))(B1,B2,B3)</f>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" cm="1">
+        <f t="array" ref="A15:B15">QUADRATIC(B1,B2,B3)</f>
         <v>2</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>3</v>
       </c>
-      <c r="C14" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(A14)</f>
-        <v>=LAMBDA(a,b,c,(-b+{-1,1}*SQRT(b^2-4*a*c))/ (2*a))(B1,B2,B3)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" cm="1">
-        <f t="array" ref="A17:B17">QUADRATIC(B1,B2,B3)</f>
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(A17)</f>
+      <c r="C15" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(A15)</f>
         <v>=QUADRATIC(B1,B2,B3)</v>
       </c>
     </row>
